--- a/biology/Botanique/Paphinia_levyae_var._angustisegmenta/Paphinia_levyae_var._angustisegmenta.xlsx
+++ b/biology/Botanique/Paphinia_levyae_var._angustisegmenta/Paphinia_levyae_var._angustisegmenta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paphinia levyae var. angustisegmenta Garay est une variété de plantes à fleurs de la famille des Orchidaceae (les orchidées) et de la sous-tribu des Stanhopeinae.
 L’aspect de la fleur est assez différent de celui de Paphinia levyae. Si le labelle est identique avec notamment ses lamelles presque à angle droit à sa base, les autres segments floraux, d’une couleur rouge orangée délavée, ne possèdent pas de bordures blanches. Les pétales sont également nettement plus étroits.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">angustisegmentus, a, um adj. latin : segment étroit.
 </t>
@@ -543,7 +557,9 @@
           <t>Diagnose</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">A varietate typica color sepalorum petalorumque multo pallidior et petala ispsa multo angustiora differt.
 Garay. Harvard Papers in Botany 4(1): 311. 1999.
@@ -575,7 +591,9 @@
           <t>Répartition et biotope</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante type a été découverte dans la région de Lita, près de la province équatorienne de Carchi.
 </t>
@@ -606,7 +624,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Aucune information disponible.
 </t>
